--- a/Sample/Sample_forPCoding.xlsx
+++ b/Sample/Sample_forPCoding.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="gov" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="subdist" sheetId="2" r:id="rId3"/>
     <sheet name="Community" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -10834,7 +10834,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -11091,6 +11091,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -11126,6 +11143,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -12441,7 +12475,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12725,7 +12759,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>17</v>
       </c>
@@ -12742,7 +12776,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -12759,7 +12793,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
@@ -12776,7 +12810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>17</v>
       </c>
@@ -12793,7 +12827,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
@@ -12810,7 +12844,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>17</v>
       </c>

--- a/Sample/Sample_forPCoding.xlsx
+++ b/Sample/Sample_forPCoding.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
@@ -12475,7 +12475,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Sample/Sample_forPCoding.xlsx
+++ b/Sample/Sample_forPCoding.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7F1D51-B163-4B6D-BF58-6F6242B56E6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="gov" sheetId="1" r:id="rId1"/>
     <sheet name="Dist" sheetId="4" r:id="rId2"/>
     <sheet name="subdist" sheetId="2" r:id="rId3"/>
     <sheet name="Community" sheetId="3" r:id="rId4"/>
+    <sheet name="ESRI_MAPINFO_SHEET" sheetId="5" state="veryHidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15250" uniqueCount="3604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15179" uniqueCount="3597">
   <si>
     <t>Mohafaza_EN</t>
   </si>
@@ -10799,27 +10808,6 @@
   </si>
   <si>
     <t>Batch</t>
-  </si>
-  <si>
-    <t>admin3_EN_CODE</t>
-  </si>
-  <si>
-    <t>admin3_EN_NAME</t>
-  </si>
-  <si>
-    <t>SY020500</t>
-  </si>
-  <si>
-    <t>SY020503</t>
-  </si>
-  <si>
-    <t>SY030203</t>
-  </si>
-  <si>
-    <t>SY030204</t>
-  </si>
-  <si>
-    <t>SY030205</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -10834,7 +10822,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -10895,7 +10883,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -10933,6 +10921,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -10941,7 +10940,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10985,22 +10984,16 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Communities_Villages" xfId="3"/>
-    <cellStyle name="Normal_Districts" xfId="4"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
-    <cellStyle name="Normal_Sheet2" xfId="2"/>
+    <cellStyle name="Normal_Communities_Villages" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal_Districts" xfId="4" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Sheet2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -11013,6 +11006,106 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>294147</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>126965</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="EsriDoNotEdit">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F65C0FDA-BFC9-45D4-91EC-3D7497288B2B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="6390147" cy="1650965"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5000" b="1" i="0" cap="none" spc="0">
+              <a:ln w="18000">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="140000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:noFill/>
+              <a:effectLst>
+                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>DO NOT EDIT </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5000" b="1" i="0" cap="none" spc="0">
+              <a:ln w="18000">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="140000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:noFill/>
+              <a:effectLst>
+                <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="50000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:latin typeface="Verdana" panose="020B0604030504040204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> For Esri use only</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11335,7 +11428,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G49"/>
   <sheetViews>
@@ -11581,10 +11674,10 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3601</v>
+        <v>3594</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>3603</v>
+        <v>3596</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -11598,10 +11691,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3602</v>
+        <v>3595</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>3603</v>
+        <v>3596</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -12470,12 +12563,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12952,12 +13045,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12965,10 +13058,9 @@
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.5703125" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="8" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -12978,23 +13070,8 @@
       <c r="C1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="15" t="s">
-        <v>3594</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>3595</v>
-      </c>
-      <c r="F1" s="15" t="s">
-        <v>3585</v>
-      </c>
-      <c r="G1" s="15" t="s">
-        <v>3590</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>3591</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -13004,23 +13081,8 @@
       <c r="C2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="F2" s="16">
-        <v>18</v>
-      </c>
-      <c r="G2" s="16">
-        <v>9</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>3592</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -13030,23 +13092,8 @@
       <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>100</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -13056,23 +13103,8 @@
       <c r="C4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>100</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
@@ -13082,23 +13114,8 @@
       <c r="C5" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="16">
-        <v>1</v>
-      </c>
-      <c r="G5" s="16">
-        <v>83</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -13108,23 +13125,8 @@
       <c r="C6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="16">
-        <v>80</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>5</v>
       </c>
@@ -13134,23 +13136,8 @@
       <c r="C7" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" s="16">
-        <v>1</v>
-      </c>
-      <c r="G7" s="16">
-        <v>83</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -13160,23 +13147,8 @@
       <c r="C8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="16">
-        <v>40</v>
-      </c>
-      <c r="G8" s="16">
-        <v>3</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>3592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -13186,23 +13158,8 @@
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>100</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -13212,23 +13169,8 @@
       <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>100</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>9</v>
       </c>
@@ -13238,23 +13180,8 @@
       <c r="C11" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="16">
-        <v>1</v>
-      </c>
-      <c r="G11" s="16">
-        <v>80</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>9</v>
       </c>
@@ -13264,23 +13191,8 @@
       <c r="C12" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>100</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>9</v>
       </c>
@@ -13290,23 +13202,8 @@
       <c r="C13" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="16">
-        <v>100</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>3592</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
@@ -13316,23 +13213,8 @@
       <c r="C14" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="17" t="s">
-        <v>3596</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="F14" s="16">
-        <v>1</v>
-      </c>
-      <c r="G14" s="16">
-        <v>83</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>11</v>
       </c>
@@ -13342,23 +13224,8 @@
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>100</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>11</v>
       </c>
@@ -13368,23 +13235,8 @@
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>100</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>11</v>
       </c>
@@ -13394,23 +13246,8 @@
       <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>3597</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>100</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -13420,23 +13257,8 @@
       <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <v>100</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -13446,23 +13268,8 @@
       <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>100</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>13</v>
       </c>
@@ -13472,23 +13279,8 @@
       <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>100</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>15</v>
       </c>
@@ -13498,23 +13290,8 @@
       <c r="C21" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
-        <v>100</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
@@ -13524,23 +13301,8 @@
       <c r="C22" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>100</v>
-      </c>
-      <c r="H22" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -13550,23 +13312,8 @@
       <c r="C23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D23" s="17" t="s">
-        <v>3598</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>100</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>18</v>
       </c>
@@ -13576,23 +13323,8 @@
       <c r="C24" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="17" t="s">
-        <v>3599</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>100</v>
-      </c>
-      <c r="H24" s="16" t="s">
-        <v>3593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
@@ -13602,20 +13334,27 @@
       <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="17" t="s">
-        <v>3600</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <v>100</v>
-      </c>
-      <c r="H25" s="16" t="s">
-        <v>3593</v>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -13624,7 +13363,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:O1132"/>
   <sheetViews>
@@ -66857,4 +66596,18 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{069C3233-3866-4849-A8FC-CF74F6B311F9}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>